--- a/file/数据库字典.xlsx
+++ b/file/数据库字典.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>表名</t>
   </si>
@@ -82,6 +82,27 @@
   </si>
   <si>
     <t>updated_at</t>
+  </si>
+  <si>
+    <t>问答表questions</t>
+  </si>
+  <si>
+    <t>问题</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>不超过50个字</t>
+  </si>
+  <si>
+    <t>答案</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>不超过200个字</t>
   </si>
 </sst>
 </file>
@@ -89,12 +110,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,13 +167,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -267,7 +281,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +290,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -306,6 +332,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -348,6 +380,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -366,6 +404,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -378,13 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,12 +446,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -426,19 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,166 +592,169 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1081,89 +1104,89 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="14.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="14.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8" style="3" customWidth="1"/>
+    <col min="6" max="6" width="33.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>300</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="4">
@@ -1171,30 +1194,101 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3">
+        <v>150</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3">
+        <v>600</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/file/数据库字典.xlsx
+++ b/file/数据库字典.xlsx
@@ -1109,7 +1109,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/file/数据库字典.xlsx
+++ b/file/数据库字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>表名</t>
   </si>
@@ -103,6 +103,43 @@
   </si>
   <si>
     <t>不超过200个字</t>
+  </si>
+  <si>
+    <r>
+      <t>老师教练</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  teachers</t>
+    </r>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>级别</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>概述</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>照片</t>
+  </si>
+  <si>
+    <t>img</t>
   </si>
 </sst>
 </file>
@@ -110,12 +147,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +174,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -144,9 +186,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,63 +284,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,48 +299,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -296,187 +343,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,21 +534,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -515,16 +547,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,25 +606,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,10 +642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,10 +654,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,125 +666,125 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,6 +802,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1104,12 +1154,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1284,6 +1334,96 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/file/数据库字典.xlsx
+++ b/file/数据库字典.xlsx
@@ -106,6 +106,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>老师教练</t>
     </r>
     <r>
@@ -147,9 +152,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -186,6 +191,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -194,23 +282,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,43 +297,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,8 +313,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,38 +323,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,187 +348,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,11 +542,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,6 +572,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -570,17 +596,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,21 +639,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -642,145 +647,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/file/数据库字典.xlsx
+++ b/file/数据库字典.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>表名</t>
   </si>
@@ -146,16 +146,52 @@
   <si>
     <t>img</t>
   </si>
+  <si>
+    <t>学校环境 environments</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>30字</t>
+  </si>
+  <si>
+    <t>展示类型</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>1-大, 2-中, 3-小</t>
+  </si>
+  <si>
+    <t>学校图片environment_imgs</t>
+  </si>
+  <si>
+    <t>路径</t>
+  </si>
+  <si>
+    <t>学校id</t>
+  </si>
+  <si>
+    <t>senvironment_id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -191,6 +227,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -198,17 +288,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,14 +328,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -235,16 +335,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,76 +364,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Consolas"/>
       <charset val="134"/>
@@ -348,13 +384,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,7 +486,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,157 +564,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,36 +575,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -590,17 +596,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,16 +653,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,10 +683,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,137 +695,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -810,6 +846,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1159,19 +1198,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18" style="3" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="14.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="8" style="3" customWidth="1"/>
     <col min="6" max="6" width="33.625" style="3" customWidth="1"/>
@@ -1430,10 +1469,129 @@
         <v>100</v>
       </c>
     </row>
+    <row r="18" s="2" customFormat="1" spans="1:6">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3">
+        <v>90</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:6">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="3">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A23:A25"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/file/数据库字典.xlsx
+++ b/file/数据库字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,10 +188,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -229,7 +229,104 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,51 +340,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -297,68 +349,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,187 +384,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,17 +578,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,22 +597,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,6 +619,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -643,35 +646,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,145 +683,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1201,9 +1201,9 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/file/数据库字典.xlsx
+++ b/file/数据库字典.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>表名</t>
   </si>
@@ -84,7 +84,7 @@
     <t>updated_at</t>
   </si>
   <si>
-    <t>问答表questions</t>
+    <t>问答表        questions</t>
   </si>
   <si>
     <t>问题</t>
@@ -105,22 +105,7 @@
     <t>不超过200个字</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>老师教练</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  teachers</t>
-    </r>
+    <t>老师教练        teachers</t>
   </si>
   <si>
     <t>姓名</t>
@@ -181,6 +166,12 @@
   </si>
   <si>
     <t>senvironment_id</t>
+  </si>
+  <si>
+    <t>课程介绍        courses</t>
+  </si>
+  <si>
+    <t>图片</t>
   </si>
 </sst>
 </file>
@@ -188,12 +179,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,9 +220,24 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,16 +249,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,9 +278,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,6 +308,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -286,41 +331,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,43 +354,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -384,187 +370,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +583,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,18 +616,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,6 +650,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -683,10 +669,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,137 +681,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -836,18 +822,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1198,26 +1190,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="16" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8" style="3" customWidth="1"/>
-    <col min="6" max="6" width="33.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="16" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8" style="4" customWidth="1"/>
+    <col min="6" max="6" width="33.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1240,358 +1232,450 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>300</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>65535</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>150</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>600</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="9"/>
+      <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="9"/>
+      <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="9"/>
+      <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="6">
         <v>65535</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="9"/>
+      <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:6">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>10</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="7"/>
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="2:6">
+      <c r="B20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>90</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="7"/>
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="2:6">
+      <c r="B21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>1</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:6">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>10</v>
       </c>
+      <c r="F23" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="4">
         <v>10</v>
       </c>
     </row>
+    <row r="26" s="2" customFormat="1" spans="1:6">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="4">
+        <v>10</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="6">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="4">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A12:A17"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A27:A31"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/file/数据库字典.xlsx
+++ b/file/数据库字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>表名</t>
   </si>
@@ -126,6 +126,18 @@
     <t>summary</t>
   </si>
   <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>默认1</t>
+  </si>
+  <si>
     <t>照片</t>
   </si>
   <si>
@@ -148,9 +160,6 @@
   </si>
   <si>
     <t>type</t>
-  </si>
-  <si>
-    <t>tinyint</t>
   </si>
   <si>
     <t>1-大, 2-中, 3-小</t>
@@ -179,10 +188,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -218,6 +227,135 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -225,135 +363,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -370,6 +379,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -389,168 +560,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,6 +588,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -588,26 +612,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,28 +647,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,10 +678,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,133 +690,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1190,12 +1199,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1451,7 +1460,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="9"/>
       <c r="B17" s="4" t="s">
         <v>36</v>
@@ -1460,211 +1469,229 @@
         <v>37</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="6">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9"/>
+      <c r="B18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:6">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="19" s="2" customFormat="1" spans="1:6">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <v>10</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="4">
-        <v>90</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E21" s="4">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:6">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3" t="s">
+    <row r="22" spans="2:6">
+      <c r="B22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:6">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="4">
         <v>10</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="4">
-        <v>100</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E26" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:6">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="4" t="s">
+    <row r="27" s="2" customFormat="1" spans="1:6">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="4">
         <v>10</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="4">
-        <v>90</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="4">
-        <v>150</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="6">
-        <v>65535</v>
+        <v>12</v>
+      </c>
+      <c r="E30" s="4">
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="4" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="6">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E32" s="4">
         <v>100</v>
       </c>
     </row>
@@ -1672,10 +1699,10 @@
   <mergeCells count="6">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A28:A32"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
